--- a/Zaoch/11/лаб1.xlsx
+++ b/Zaoch/11/лаб1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\PAS\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\PAS\Zaoch\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627D26B9-531C-4CD5-BDA7-33EB93C129F8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E80BBF1-77A0-47D9-B51E-045C58B7F870}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{41422B86-A465-485E-A3F6-9BAAF425347B}"/>
   </bookViews>
@@ -177,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +241,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -522,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -622,7 +630,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -940,8 +960,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,23 +1243,23 @@
         <v>9</v>
       </c>
       <c r="C24" s="49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="49">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F24" s="49">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G24" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="53">
         <f>SUM(B24:G24)+1</f>
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I24" s="2">
         <v>849</v>
@@ -1259,23 +1279,23 @@
       </c>
       <c r="P24">
         <f>K24*C24</f>
-        <v>4512</v>
+        <v>2256</v>
       </c>
       <c r="Q24">
         <f>D24*$I$24</f>
-        <v>3396</v>
+        <v>1698</v>
       </c>
       <c r="R24">
         <f>E24*$J$24</f>
-        <v>9432</v>
+        <v>3144</v>
       </c>
       <c r="S24">
         <f>L24*F24</f>
-        <v>6768</v>
+        <v>2256</v>
       </c>
       <c r="T24">
         <f>G24*$I$24</f>
-        <v>2547</v>
+        <v>1698</v>
       </c>
       <c r="V24" s="2">
         <v>1048</v>
@@ -1285,7 +1305,7 @@
       </c>
       <c r="Y24" s="7">
         <f>SUM(O24:V24)</f>
-        <v>35344</v>
+        <v>19741</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -1296,16 +1316,16 @@
         <v>9</v>
       </c>
       <c r="C25" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" s="50">
         <v>1</v>
@@ -1314,27 +1334,27 @@
         <v>210</v>
       </c>
       <c r="O25">
-        <f>B25*$I$25</f>
+        <f t="shared" ref="O25:T25" si="0">B25*$I$25</f>
         <v>1890</v>
       </c>
       <c r="P25">
-        <f>C25*$I$25</f>
-        <v>420</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="Q25">
-        <f>D25*$I$25</f>
-        <v>420</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="R25">
-        <f>E25*$I$25</f>
-        <v>630</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="S25">
-        <f>F25*$I$25</f>
-        <v>630</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="T25">
-        <f>G25*$I$25</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="V25" s="2">
@@ -1342,7 +1362,7 @@
       </c>
       <c r="Y25" s="7">
         <f>SUM(O25:V25)</f>
-        <v>4200</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -1354,51 +1374,51 @@
         <v>9</v>
       </c>
       <c r="C26" s="49">
-        <f t="shared" ref="C26:G26" si="0">C24</f>
-        <v>6</v>
+        <f t="shared" ref="C26:G26" si="1">C24</f>
+        <v>3</v>
       </c>
       <c r="D26" s="49">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E26" s="49">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F26" s="49">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="G26" s="49">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I26" s="2">
         <v>260</v>
       </c>
       <c r="O26">
-        <f>B26*$I$26</f>
+        <f t="shared" ref="O26:T26" si="2">B26*$I$26</f>
         <v>2340</v>
       </c>
       <c r="P26">
-        <f>C26*$I$26</f>
-        <v>1560</v>
+        <f t="shared" si="2"/>
+        <v>780</v>
       </c>
       <c r="Q26">
-        <f>D26*$I$26</f>
-        <v>1040</v>
+        <f t="shared" si="2"/>
+        <v>520</v>
       </c>
       <c r="R26">
-        <f>E26*$I$26</f>
-        <v>2340</v>
+        <f t="shared" si="2"/>
+        <v>780</v>
       </c>
       <c r="S26">
-        <f>F26*$I$26</f>
-        <v>2340</v>
+        <f t="shared" si="2"/>
+        <v>780</v>
       </c>
       <c r="T26">
-        <f>G26*$I$26</f>
-        <v>780</v>
+        <f t="shared" si="2"/>
+        <v>520</v>
       </c>
       <c r="V26" s="2">
         <f>I26</f>
@@ -1406,7 +1426,7 @@
       </c>
       <c r="Y26" s="7">
         <f>SUM(O26:V26)</f>
-        <v>10660</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
@@ -1418,24 +1438,24 @@
         <v>9</v>
       </c>
       <c r="C27" s="49">
-        <f t="shared" ref="C27:G27" si="1">C24</f>
-        <v>6</v>
+        <f t="shared" ref="C27:G27" si="3">C24</f>
+        <v>3</v>
       </c>
       <c r="D27" s="49">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E27" s="49">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="F27" s="49">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="G27" s="49">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="I27" s="2">
         <f>500+50+240</f>
@@ -1445,28 +1465,28 @@
         <v>43</v>
       </c>
       <c r="O27">
-        <f>B27*$I$27</f>
+        <f t="shared" ref="O27:T27" si="4">B27*$I$27</f>
         <v>7110</v>
       </c>
       <c r="P27">
-        <f>C27*$I$27</f>
-        <v>4740</v>
+        <f t="shared" si="4"/>
+        <v>2370</v>
       </c>
       <c r="Q27">
-        <f>D27*$I$27</f>
-        <v>3160</v>
+        <f t="shared" si="4"/>
+        <v>1580</v>
       </c>
       <c r="R27">
-        <f>E27*$I$27</f>
-        <v>7110</v>
+        <f t="shared" si="4"/>
+        <v>2370</v>
       </c>
       <c r="S27">
-        <f>F27*$I$27</f>
-        <v>7110</v>
+        <f t="shared" si="4"/>
+        <v>2370</v>
       </c>
       <c r="T27">
-        <f>G27*$I$27</f>
-        <v>2370</v>
+        <f t="shared" si="4"/>
+        <v>1580</v>
       </c>
       <c r="V27" s="2">
         <v>50</v>
@@ -1476,7 +1496,7 @@
       </c>
       <c r="Y27" s="7">
         <f>SUM(O27:V27)</f>
-        <v>31650</v>
+        <v>17430</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1512,23 +1532,23 @@
         <v>28350</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" ref="P28:T28" si="2">C28</f>
+        <f t="shared" ref="P28:T28" si="5">C28</f>
         <v>25400</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14580</v>
       </c>
       <c r="R28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16600</v>
       </c>
       <c r="S28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>15583.333333333334</v>
       </c>
       <c r="T28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12460</v>
       </c>
       <c r="V28" s="2">
@@ -1590,24 +1610,24 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:G32" si="3">C24</f>
-        <v>6</v>
+        <f t="shared" ref="C32:G32" si="6">C24</f>
+        <v>3</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>16</v>
@@ -1622,36 +1642,36 @@
         <v>18</v>
       </c>
       <c r="O33" s="65">
-        <f>O34/B32</f>
+        <f t="shared" ref="O33:T33" si="7">O34/B32</f>
         <v>5259</v>
       </c>
       <c r="P33" s="65">
-        <f>P34/C32</f>
-        <v>6105.333333333333</v>
+        <f t="shared" si="7"/>
+        <v>10338.666666666666</v>
       </c>
       <c r="Q33" s="65">
-        <f>Q34/D32</f>
-        <v>5649</v>
+        <f t="shared" si="7"/>
+        <v>9294</v>
       </c>
       <c r="R33" s="65">
-        <f>R34/E32</f>
-        <v>4012.4444444444443</v>
+        <f t="shared" si="7"/>
+        <v>7701.333333333333</v>
       </c>
       <c r="S33" s="65">
-        <f>S34/F32</f>
-        <v>3603.4814814814818</v>
+        <f t="shared" si="7"/>
+        <v>7066.4444444444453</v>
       </c>
       <c r="T33" s="65">
-        <f>T34/G32</f>
-        <v>6122.333333333333</v>
+        <f t="shared" si="7"/>
+        <v>8234</v>
       </c>
       <c r="W33" s="8">
         <f>SUM(O34:T34,V32)</f>
-        <v>324840.33333333337</v>
+        <v>289077.33333333337</v>
       </c>
       <c r="Y33" s="8">
         <f>SUM(Y24:Y31)</f>
-        <v>324840.33333333331</v>
+        <v>289077.33333333331</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -1667,28 +1687,28 @@
         <v>13</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" ref="O34:T34" si="4">SUM(O24:O28)</f>
+        <f t="shared" ref="O34:T34" si="8">SUM(O24:O28)</f>
         <v>47331</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="4"/>
-        <v>36632</v>
+        <f t="shared" si="8"/>
+        <v>31016</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" si="4"/>
-        <v>22596</v>
+        <f t="shared" si="8"/>
+        <v>18588</v>
       </c>
       <c r="R34" s="7">
-        <f t="shared" si="4"/>
-        <v>36112</v>
+        <f t="shared" si="8"/>
+        <v>23104</v>
       </c>
       <c r="S34" s="7">
-        <f t="shared" si="4"/>
-        <v>32431.333333333336</v>
+        <f t="shared" si="8"/>
+        <v>21199.333333333336</v>
       </c>
       <c r="T34" s="7">
-        <f t="shared" si="4"/>
-        <v>18367</v>
+        <f t="shared" si="8"/>
+        <v>16468</v>
       </c>
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
@@ -1758,7 +1778,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
+      <c r="S37" s="68"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
@@ -1784,7 +1804,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
+      <c r="S38" s="69"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
@@ -1810,7 +1830,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
+      <c r="S39" s="68"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
@@ -1836,7 +1856,7 @@
       <c r="P40" s="18"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
+      <c r="S40" s="69"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
@@ -1862,7 +1882,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
+      <c r="S41" s="68"/>
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
       <c r="V41" s="18"/>
@@ -1888,7 +1908,7 @@
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
+      <c r="S42" s="69"/>
       <c r="T42" s="18"/>
       <c r="U42" s="18"/>
       <c r="V42" s="18"/>
@@ -1914,7 +1934,7 @@
       <c r="P43" s="18"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
+      <c r="S43" s="68"/>
       <c r="T43" s="18"/>
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
@@ -1940,7 +1960,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
+      <c r="S44" s="68"/>
       <c r="T44" s="18"/>
       <c r="U44" s="18"/>
       <c r="V44" s="18"/>
@@ -1966,7 +1986,7 @@
       <c r="P45" s="18"/>
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
+      <c r="S45" s="68"/>
       <c r="T45" s="18"/>
       <c r="U45" s="18"/>
       <c r="V45" s="18"/>
@@ -1992,7 +2012,7 @@
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
+      <c r="S46" s="69"/>
       <c r="T46" s="18"/>
       <c r="U46" s="18"/>
       <c r="V46" s="18"/>
@@ -2018,7 +2038,7 @@
       <c r="P47" s="18"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
+      <c r="S47" s="68"/>
       <c r="T47" s="18"/>
       <c r="U47" s="18"/>
       <c r="V47" s="18"/>
@@ -2044,7 +2064,7 @@
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
+      <c r="S48" s="69"/>
       <c r="T48" s="18"/>
       <c r="U48" s="18"/>
       <c r="V48" s="18"/>
@@ -2070,7 +2090,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
+      <c r="S49" s="68"/>
       <c r="T49" s="18"/>
       <c r="U49" s="18"/>
       <c r="V49" s="18"/>
@@ -2143,7 +2163,7 @@
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
+      <c r="N52" s="66"/>
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
@@ -2169,7 +2189,7 @@
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
+      <c r="N53" s="66"/>
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
       <c r="Q53" s="18"/>
@@ -2195,7 +2215,7 @@
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
+      <c r="N54" s="66"/>
       <c r="O54" s="18"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
@@ -2221,7 +2241,7 @@
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
+      <c r="N55" s="66"/>
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
       <c r="Q55" s="18"/>
@@ -2247,7 +2267,7 @@
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
+      <c r="N56" s="66"/>
       <c r="O56" s="18"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
@@ -2273,7 +2293,7 @@
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
+      <c r="N57" s="66"/>
       <c r="O57" s="18"/>
       <c r="P57" s="18"/>
       <c r="Q57" s="18"/>
@@ -2299,7 +2319,7 @@
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
+      <c r="N58" s="67"/>
       <c r="O58" s="18"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="18"/>
@@ -3149,7 +3169,7 @@
   <dimension ref="B1:AK31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E31"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3181,7 +3201,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="27">
-        <f>(B2*D2)/C2</f>
+        <f t="shared" ref="E2:E31" si="0">(B2*D2)/C2</f>
         <v>6412.5</v>
       </c>
       <c r="F2" s="58"/>
@@ -3211,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="4">
-        <f>(B3*D3)/C3</f>
+        <f t="shared" si="0"/>
         <v>10462.5</v>
       </c>
       <c r="F3" s="59"/>
@@ -3241,7 +3261,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="4">
-        <f>(B4*D4)/C4</f>
+        <f t="shared" si="0"/>
         <v>2250</v>
       </c>
       <c r="F4" s="59"/>
@@ -3271,7 +3291,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="4">
-        <f>(B5*D5)/C5</f>
+        <f t="shared" si="0"/>
         <v>3375</v>
       </c>
       <c r="F5" s="59"/>
@@ -3301,7 +3321,7 @@
         <v>45</v>
       </c>
       <c r="E6" s="6">
-        <f>(B6*D6)/C6</f>
+        <f t="shared" si="0"/>
         <v>5850</v>
       </c>
       <c r="F6" s="60">
@@ -3334,7 +3354,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="27">
-        <f>(B7*D7)/C7</f>
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="F7" s="61"/>
@@ -3364,7 +3384,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="4">
-        <f>(B8*D8)/C8</f>
+        <f t="shared" si="0"/>
         <v>1700</v>
       </c>
       <c r="F8" s="62"/>
@@ -3394,7 +3414,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="4">
-        <f>(B9*D9)/C9</f>
+        <f t="shared" si="0"/>
         <v>3700</v>
       </c>
       <c r="F9" s="62"/>
@@ -3416,7 +3436,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="4">
-        <f>(B10*D10)/C10</f>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="F10" s="62"/>
@@ -3438,7 +3458,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="6">
-        <f>(B11*D11)/C11</f>
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="F11" s="60">
@@ -3463,7 +3483,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="27">
-        <f>(B12*D12)/C12</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="F12" s="61"/>
@@ -3485,7 +3505,7 @@
         <v>60</v>
       </c>
       <c r="E13" s="4">
-        <f>(B13*D13)/C13</f>
+        <f t="shared" si="0"/>
         <v>1860</v>
       </c>
       <c r="F13" s="62"/>
@@ -3507,7 +3527,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="4">
-        <f>(B14*D14)/C14</f>
+        <f t="shared" si="0"/>
         <v>3180</v>
       </c>
       <c r="F14" s="62"/>
@@ -3529,7 +3549,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="4">
-        <f>(B15*D15)/C15</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="F15" s="62"/>
@@ -3551,7 +3571,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="6">
-        <f>(B16*D16)/C16</f>
+        <f t="shared" si="0"/>
         <v>5340</v>
       </c>
       <c r="F16" s="60">
@@ -3576,7 +3596,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="27">
-        <f>(B17*D17)/C17</f>
+        <f t="shared" si="0"/>
         <v>4666.666666666667</v>
       </c>
       <c r="F17" s="61"/>
@@ -3623,7 +3643,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="4">
-        <f>(B18*D18)/C18</f>
+        <f t="shared" si="0"/>
         <v>1133.3333333333333</v>
       </c>
       <c r="F18" s="62"/>
@@ -3670,7 +3690,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="4">
-        <f>(B19*D19)/C19</f>
+        <f t="shared" si="0"/>
         <v>2466.6666666666665</v>
       </c>
       <c r="F19" s="62"/>
@@ -3692,7 +3712,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="4">
-        <f>(B20*D20)/C20</f>
+        <f t="shared" si="0"/>
         <v>3666.6666666666665</v>
       </c>
       <c r="F20" s="62"/>
@@ -3717,7 +3737,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="6">
-        <f>(B21*D21)/C21</f>
+        <f t="shared" si="0"/>
         <v>4666.666666666667</v>
       </c>
       <c r="F21" s="60">
@@ -3742,7 +3762,7 @@
         <v>55</v>
       </c>
       <c r="E22" s="27">
-        <f>(B22*D22)/C22</f>
+        <f t="shared" si="0"/>
         <v>2444.4444444444443</v>
       </c>
       <c r="F22" s="61"/>
@@ -3764,7 +3784,7 @@
         <v>55</v>
       </c>
       <c r="E23" s="4">
-        <f>(B23*D23)/C23</f>
+        <f t="shared" si="0"/>
         <v>1955.5555555555557</v>
       </c>
       <c r="F23" s="62"/>
@@ -3786,7 +3806,7 @@
         <v>55</v>
       </c>
       <c r="E24" s="4">
-        <f>(B24*D24)/C24</f>
+        <f t="shared" si="0"/>
         <v>3300</v>
       </c>
       <c r="F24" s="62"/>
@@ -3808,7 +3828,7 @@
         <v>55</v>
       </c>
       <c r="E25" s="4">
-        <f>(B25*D25)/C25</f>
+        <f t="shared" si="0"/>
         <v>2383.3333333333335</v>
       </c>
       <c r="F25" s="62"/>
@@ -3830,7 +3850,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="6">
-        <f>(B26*D26)/C26</f>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="F26" s="60">
@@ -3855,7 +3875,7 @@
         <v>35</v>
       </c>
       <c r="E27" s="27">
-        <f>(B27*D27)/C27</f>
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
       <c r="F27" s="61"/>
@@ -3877,7 +3897,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="4">
-        <f>(B28*D28)/C28</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
       <c r="F28" s="62"/>
@@ -3899,7 +3919,7 @@
         <v>35</v>
       </c>
       <c r="E29" s="4">
-        <f>(B29*D29)/C29</f>
+        <f t="shared" si="0"/>
         <v>2240</v>
       </c>
       <c r="F29" s="62"/>
@@ -3921,7 +3941,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="4">
-        <f>(B30*D30)/C30</f>
+        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
       <c r="F30" s="62"/>
@@ -3941,7 +3961,7 @@
         <v>35</v>
       </c>
       <c r="E31" s="6">
-        <f>(B31*D31)/C31</f>
+        <f t="shared" si="0"/>
         <v>4410</v>
       </c>
       <c r="F31" s="60">
